--- a/pred_ohlcv/54_21/2019-10-30 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ADA ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>13056.20174341998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>14046.20174341998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>34035.20174341998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>33430.42029311998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>538242.5916009101</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>534463.51330091</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>476463.13300091</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>469947.81010091</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1912650.15933099</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1907812.78103099</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1888685.61663099</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1881303.23883099</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-1087605.86662741</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-1080853.66542741</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-1128895.42102741</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-155754.6460870703</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-226417.5705870703</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-149140.6578870703</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-70829.04958707026</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-72715.83548707025</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-384972.1946870703</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-397003.1827870703</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-326145.7945870702</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ADA ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>13056.20174341998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>14046.20174341998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>34035.20174341998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>33430.42029311998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>538242.5916009101</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>534463.51330091</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>476463.13300091</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>469947.81010091</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1912650.15933099</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1907812.78103099</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1888685.61663099</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1881303.23883099</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1880498.08743099</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1880498.08743099</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1879466.99173099</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-1087605.86662741</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-1080853.66542741</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-1128895.42102741</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-155754.6460870703</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-226417.5705870703</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-149140.6578870703</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-70829.04958707026</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-72715.83548707025</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-384972.1946870703</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-397003.1827870703</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-326145.7945870702</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
